--- a/biology/Botanique/Alberto_Vojtěch_Frič/Alberto_Vojtěch_Frič.xlsx
+++ b/biology/Botanique/Alberto_Vojtěch_Frič/Alberto_Vojtěch_Frič.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+          <t>Alberto_Vojtěch_Frič</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alberto Vojtěch Frič (8 septembre 1882, Prague – 4 décembre 1944, idem) est un ethnographe, voyageur, botaniste et écrivain tchécoslovaque. Les Indiens sud-américains qu'il a rencontrés l'ont surnommé Karaï Pukû (Long chasseur). En Europe, il est également connu comme le « chasseur de cactus ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+          <t>Alberto_Vojtěch_Frič</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vojtěch junior (Alberto est l'équivalent portugais ou espagnol du prénom tchèque Vojtěch) naît dans une famille de la grande bourgeoisie praguoise. Son père, Vojtěch Frič est conseiller municipal et adjoint au maire de Prague, son oncle Jan Václav Frič (1829-1890) est un homme politique et acteur clé de la révolution de 1848. Un autre de ses oncles Antonn Jan Frič (1832-1914) est zoologiste et directeur du Muséum national, enfin, un autre de ses oncles est Václav Frič, propriétaire d'un grand magasin d'alimentation portant son nom à Prague.
 Dès son enfance, il montre des dons pour les sciences naturelles. Encore enfant, il rapporte à la maison un cactus, Echinopsis eyriesii nommé au départ Pfeiff. &amp; Otto pour se venger d'un gendarme qui l'accusait de voler des œufs. Le cactus, abandonné sur un rebord de fenêtre, fleurit et attire l'attention du botaniste… en herbe qui écrit, bien plus tard à ce sujet : « qu'une plante aussi informe et inintéressante qu'un cactus qui devait pour moi n'être qu'un outil de vengeance puisse donner naissance à tant de beauté me fascina ». À 15 ans, il est déjà considéré comme un spécialiste des cactus en Europe centrale, on fait appel à lui pour consulter une question en la matière et on l'invite aux conférences scientifiques.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+          <t>Alberto_Vojtěch_Frič</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Premier voyage : mai 1901 - août 1902
-Le premier voyage de Frič l'amène aux confins du Mato Grosso où il rencontre les Indiens de la tribu Chavantès [transcription phonétique du texte tchèque : Šavantes]. Il doit abréger son séjour à la suite de sa rencontre malencontreuse avec un jaguar qui l'attaque. Frič blesse la bête en lui tirant dessus mais ne se sort pas du duel sans de graves blessures. Il est soigné par les Indiens durant quelques semaines puis il retourne en Europe. Cette mésaventure aura des conséquences en fait inespérées : il devient un héros pour les Indiens. Il n'est pas seulement l'homme qui a tué un jaguar, ce qui en soit est un acte de bravoure très admiré, mais il est surtout celui qui a survécu à l'étreinte de l'animal. Un tel homme est considéré comme hors du commun parmi les indiens. Un respect quasi religieux lui est alors voué qui lui permet d'atteindre des buts irréalisables sans cela.
-Second voyage : août 1903 - septembre 1905
-Lors de son second voyage, Frič explore, pour le compte du gouvernement paraguayen le cours du fleuve Pilcomayo. Il le parcourt sur toute sa longueur, ce qui, apparemment n'avait jamais été réalisé. Ce faisant, il découvre la tombe de l'explorateur espagnol Enrique de Ibarreta y Uhagon (1859-1898) et qu'il est mort des suites d'une altercation qu'il avait lui-même provoquée en raison de son comportement peu respectueux des coutumes aborigènes.
-Lors de ce voyage, il passe du temps auprès de la tribu des Chamacoco qui vivent le long de la rivière Paraguay et y prend pour épouse une femme de la tribu, Lora-y (Cane-Noire). De cette union naît une fille, Hermina (née vers septembre 1905 - morte le 10 mars 2009). Il ne les reverra jamais après son départ pour l'Europe à l'été 1905.
-Troisième voyage : août 1906 - août 1908
-De son troisième voyage, il ramène en Europe le fils d'un chef de tribu Chamacoco Tcherwouish (Petit-Ver) Piochado Mendoza dont le séjour parfois cocasse a inspiré Jaroslav Hašek (1883-1923) pour l'écriture de la nouvelle L'Indien et la police praguoise. Frič l'utilise lors de conférences comme « accessoire de démonstration ». Cependant, l'objet véritable de sa venue est le désir de Frič de le faire examiner par des médecins spécialistes, Tcherwouish souffrant d'une maladie étrange qui décime alors sa tribu et que les médecins sud-américains sont incapables d'identifier. En Tchéquie, la guérison eut lieu : on découvre que cette maladie est causée par un ver nématode jusqu'alors inconnu (une ankylostomose causée par Ancylostoma duodenale) et qu'elle est guérie par un puissant laxatif.
-Frič tire un livre de cette histoire (voir infra Bibliographie).
-Quatrième voyage : début 1909 - 1912
-En 1909, Frič raccompagne Tcherwouish chez les Chamacoco et rapporte des médicaments pour toute la tribu.
-Cinquième voyage : mai 1919 - juin 1920
-En 1919, Frič voyage non seulement en tant que scientifique et écrivain-voyageur mais en tant que diplomate de la toute nouvelle République tchécoslovaque. On envisage alors de le nommer ambassadeur mais il n'y eut pas de suite en raison d'un conflit avec le ministre des 1ffaires étrangères d'alors et futur président de la République, Edvard Beneš (1884-1948).
-Huitième voyage : octobre 1928 - mars 1929</t>
+          <t>Premier voyage : mai 1901 - août 1902</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier voyage de Frič l'amène aux confins du Mato Grosso où il rencontre les Indiens de la tribu Chavantès [transcription phonétique du texte tchèque : Šavantes]. Il doit abréger son séjour à la suite de sa rencontre malencontreuse avec un jaguar qui l'attaque. Frič blesse la bête en lui tirant dessus mais ne se sort pas du duel sans de graves blessures. Il est soigné par les Indiens durant quelques semaines puis il retourne en Europe. Cette mésaventure aura des conséquences en fait inespérées : il devient un héros pour les Indiens. Il n'est pas seulement l'homme qui a tué un jaguar, ce qui en soit est un acte de bravoure très admiré, mais il est surtout celui qui a survécu à l'étreinte de l'animal. Un tel homme est considéré comme hors du commun parmi les indiens. Un respect quasi religieux lui est alors voué qui lui permet d'atteindre des buts irréalisables sans cela.
+</t>
         </is>
       </c>
     </row>
@@ -568,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+          <t>Alberto_Vojtěch_Frič</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,13 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vie familiale</t>
+          <t>Le voyageur</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">À son retour de son cinquième voyage, Frič épouse Draga Janáčková avec laquelle il a un fils Ivan (né en 1922). Son petit-fils Pavel Frič et l'épouse de celui-ci, Yvonne, s'attachent à diffuser la mémoire de leur ancêtre. Ils rééditent les livres d'A.V. Frič ou éditent de nouveaux ouvrages basés sur ses archives. L'un d'entre eux, Guido Boggiani fotograf (1861-1901), reproduit les archives photographiques de clichés exceptionnels des tribus indiennes pris par un photographe-voyageur tué par les indiens et dont les négatifs sur verre avaient été récupérés par A.V. Frič. Ce travail a été couronné du prix tchèque du meilleur livre de photographie en 1998.
-Les deux branches de la famille, l'amérindienne et l'européenne, se sont trouvées par hasard, à la suite du voyage de deux documentaristes tchèques, Alice Růžičková et Martin Číhák, partis en 2000, sur les traces de Tcherwouish, qui ont rencontré Hermina, la fille d'Alberto Vojtěch et de Lora-y qui avait été confiée aux bons soins du chef Magpiota et dont les huit enfants portent fièrement le nom de Fric.
+          <t>Second voyage : août 1903 - septembre 1905</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de son second voyage, Frič explore, pour le compte du gouvernement paraguayen le cours du fleuve Pilcomayo. Il le parcourt sur toute sa longueur, ce qui, apparemment n'avait jamais été réalisé. Ce faisant, il découvre la tombe de l'explorateur espagnol Enrique de Ibarreta y Uhagon (1859-1898) et qu'il est mort des suites d'une altercation qu'il avait lui-même provoquée en raison de son comportement peu respectueux des coutumes aborigènes.
+Lors de ce voyage, il passe du temps auprès de la tribu des Chamacoco qui vivent le long de la rivière Paraguay et y prend pour épouse une femme de la tribu, Lora-y (Cane-Noire). De cette union naît une fille, Hermina (née vers septembre 1905 - morte le 10 mars 2009). Il ne les reverra jamais après son départ pour l'Europe à l'été 1905.
 </t>
         </is>
       </c>
@@ -600,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+          <t>Alberto_Vojtěch_Frič</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +630,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Le voyageur</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troisième voyage : août 1906 - août 1908</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De son troisième voyage, il ramène en Europe le fils d'un chef de tribu Chamacoco Tcherwouish (Petit-Ver) Piochado Mendoza dont le séjour parfois cocasse a inspiré Jaroslav Hašek (1883-1923) pour l'écriture de la nouvelle L'Indien et la police praguoise. Frič l'utilise lors de conférences comme « accessoire de démonstration ». Cependant, l'objet véritable de sa venue est le désir de Frič de le faire examiner par des médecins spécialistes, Tcherwouish souffrant d'une maladie étrange qui décime alors sa tribu et que les médecins sud-américains sont incapables d'identifier. En Tchéquie, la guérison eut lieu : on découvre que cette maladie est causée par un ver nématode jusqu'alors inconnu (une ankylostomose causée par Ancylostoma duodenale) et qu'elle est guérie par un puissant laxatif.
+Frič tire un livre de cette histoire (voir infra Bibliographie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le voyageur</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quatrième voyage : début 1909 - 1912</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1909, Frič raccompagne Tcherwouish chez les Chamacoco et rapporte des médicaments pour toute la tribu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le voyageur</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinquième voyage : mai 1919 - juin 1920</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1919, Frič voyage non seulement en tant que scientifique et écrivain-voyageur mais en tant que diplomate de la toute nouvelle République tchécoslovaque. On envisage alors de le nommer ambassadeur mais il n'y eut pas de suite en raison d'un conflit avec le ministre des 1ffaires étrangères d'alors et futur président de la République, Edvard Beneš (1884-1948).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vie familiale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À son retour de son cinquième voyage, Frič épouse Draga Janáčková avec laquelle il a un fils Ivan (né en 1922). Son petit-fils Pavel Frič et l'épouse de celui-ci, Yvonne, s'attachent à diffuser la mémoire de leur ancêtre. Ils rééditent les livres d'A.V. Frič ou éditent de nouveaux ouvrages basés sur ses archives. L'un d'entre eux, Guido Boggiani fotograf (1861-1901), reproduit les archives photographiques de clichés exceptionnels des tribus indiennes pris par un photographe-voyageur tué par les indiens et dont les négatifs sur verre avaient été récupérés par A.V. Frič. Ce travail a été couronné du prix tchèque du meilleur livre de photographie en 1998.
+Les deux branches de la famille, l'amérindienne et l'européenne, se sont trouvées par hasard, à la suite du voyage de deux documentaristes tchèques, Alice Růžičková et Martin Číhák, partis en 2000, sur les traces de Tcherwouish, qui ont rencontré Hermina, la fille d'Alberto Vojtěch et de Lora-y qui avait été confiée aux bons soins du chef Magpiota et dont les huit enfants portent fièrement le nom de Fric.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Le botaniste</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Frič est progressivement devenu un spécialiste mondial des cactus et reconnu comme l'expert en la matière de son temps. Il a décrit des dizaines d'espèces et réuni la collection la plus complète en Europe (elle a disparu dans les tourmentes de la Seconde Guerre mondiale, car en dépit de tous ses efforts, Frič n'a pas réussi à trouver et financer un moyen de chauffage adéquat et ses fragiles cactus ont gelé). Il les a récoltés partout : du Mato Grosso au Gran Chaco en passant par les pentes abruptes des Andes jusqu'à 5 000 mètres d'altitude.
 Il a fasciné les spécialistes quand, au sein même du jardin botanique de Mexico, il a découvert l'espèce Astrophytum asterias que l'on pensait éteinte et que les botanistes mexicains avaient paradoxalement sous leurs yeux.
@@ -631,31 +794,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>L'ethnologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de ses voyages Frič visite des dizaines de tribus et établit un dictionnaire de 36 langues amérindiennes. Il a passé parmi elles plus de dix ans de sa vie, selon ses propres mots, les plus belles de sa vie malgré le duel presque mortel avec le jaguar, les maladies et autres mésaventures. Il réalise de nombreuses photographies et rapporte en Europe d'innombrables artefacts ethnographiques et autres souvenirs.
 De toute évidence, il s'y sent mieux qu'en Tchécoslovaquie, dans son milieu hypocrite et provincial. Quand il est avec ses amis amérindiens, il s'habille comme eux et se comporte comme eux : « si je dois rendre visite à un ministre ou au président d'une république sud-américaine, je me mets en frac. Mais si le voyageur veut comprendre l'homme sauvage, il doit laisser de côté ses vêtements, se raser la barbe et les sourcils afin de devenir l'un d'eux… »
@@ -664,62 +829,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>L'écrivain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Alberto Vojtěch Frič écrit des livres spécialisés et des livres pour la jeunesse. Ces derniers l'ont rendu immensément populaire en Tchécoslovaquie et ont été maintes fois republiés. Les illustrations de Zdeněk Burian n'y sont pas pour rien, qui rendent tangibles et belles les aventures décrites par Frič dans un monde américain encore plein de mystères.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alberto_Vojtěch_Frič</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alberto_Vojt%C4%9Bch_Fri%C4%8D</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>La peste brune et le tétanos</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Occupation de la Tchécoslovaquie par les troupes de la Wehrmacht le trouve à Prague. Pour protester, il décide de ne plus quitter son appartement. Il aurait nommé (ou voulu nommer) un cactus en l'honneur d'Hitler. À son visiteur qui voyait là une excellente idée, il explique froidement que c'est en raison du caractère fragile de ce cactus qui de toute façon va bientôt mourir. Il lui montre ensuite un splendide cactus plein de vie qu'il nomme en l'honneur d'Einstein Mediolobivia einsteinii.
 Il aurait caché des armes dans ses serres à cette époque.
